--- a/ProcessedData/WOS_SciConf_20180531.xlsx
+++ b/ProcessedData/WOS_SciConf_20180531.xlsx
@@ -4256,7 +4256,7 @@
   <dimension ref="A1:AO546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
